--- a/Outut/Avme_data.xlsx
+++ b/Outut/Avme_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadha\Documents\UiPath\UiPath Tutorials\Outut\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD565B86-9115-45E8-850F-AE4973FFE8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4080" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="17">
+  <si>
+    <t>Verify Account Position</t>
+  </si>
+  <si>
+    <t>WI1</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Research Client Check Copy</t>
+  </si>
+  <si>
+    <t>WI2</t>
+  </si>
+  <si>
+    <t>Calculate Client Security Hash</t>
+  </si>
+  <si>
+    <t>WI5</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Generate Yearly Report for Vendor</t>
+  </si>
+  <si>
+    <t>WI4</t>
+  </si>
+  <si>
+    <t>Process Vendor Invoice</t>
+  </si>
+  <si>
+    <t>WI3</t>
+  </si>
+  <si>
+    <t>WIID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +393,2377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>90369639</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>90369587</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>90369519</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>90369633</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>90369582</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>90369536</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>90369560</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>90369547</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>90369647</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>90369555</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>90369577</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>90369561</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>90369631</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>90369585</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>90369629</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>42749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>90369607</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43090</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>90369573</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>90369549</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>42963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>90369530</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>90369614</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>90369570</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>90369526</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>90369514</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>90369626</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>90369625</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>90369524</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>42936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>90369611</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>90369638</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>90369619</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>90369635</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>90369594</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>43128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>90369558</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>90369612</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>43104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>90369553</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>90369548</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>90369556</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>90369545</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>90369620</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>90369571</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>90369590</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>90369520</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>90369623</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>90369522</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1">
+        <v>42892</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>90369554</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>43086</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>90369544</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>44045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>90369516</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>90369578</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>43241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>90369574</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>42963</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>90369645</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>43239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>90369541</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>90369517</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>90369572</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>90369588</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>90369634</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>90369559</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>90369615</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>90369608</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43778</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>90369513</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1">
+        <v>44052</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>90369563</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>90369546</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>90369637</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>90369538</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>90369586</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>90369539</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>90369518</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>90369551</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>90369531</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>90369565</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>90369610</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>90369632</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>90369648</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>90369591</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>42880</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>90369540</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>90369642</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>90369521</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1">
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>90369616</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>90369535</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>90369579</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>90369583</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1">
+        <v>43355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>90369605</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>90369533</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>90369622</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>90369525</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>90369618</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>90369568</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>90369643</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>90369641</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>90369527</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="1">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>90369606</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1">
+        <v>42985</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90369529</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90369557</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>90369550</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>90369543</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="1">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>90369552</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="1">
+        <v>42910</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>90369534</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>90369627</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="1">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>90369598</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>90369596</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>90369562</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>90369528</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="1">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>90369630</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>90369601</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>90369576</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1">
+        <v>42995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>90369589</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>90369644</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>90369602</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>90369567</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>90369580</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>90369609</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>90369599</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1">
+        <v>43359</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>90369569</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>90369613</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>90369575</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>90369603</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>90369597</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1">
+        <v>42936</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>90369628</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>90369593</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="1">
+        <v>43036</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>90369537</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1">
+        <v>42937</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>90369617</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>90369640</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>44919</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>90369542</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>90369581</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>90369624</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="1">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>90369512</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="1">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>90369636</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>90369523</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="1">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>90369621</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1">
+        <v>42746</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>90369566</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>90369600</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="1">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>90369592</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="1">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>90369532</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="1">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>90369649</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>90369584</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="1">
+        <v>44122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>90369564</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" s="1">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>90369595</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="1">
+        <v>43591</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>90369515</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="1">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>90369646</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="1">
+        <v>43703</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>90369604</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="1">
+        <v>43106</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Outut/Avme_data.xlsx
+++ b/Outut/Avme_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadha\Documents\UiPath\UiPath Tutorials\Outut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD565B86-9115-45E8-850F-AE4973FFE8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56F2A0C-291E-4F9D-8757-A8839B55A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Outut/Avme_data.xlsx
+++ b/Outut/Avme_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadha\Documents\UiPath\UiPath Tutorials\Outut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56F2A0C-291E-4F9D-8757-A8839B55A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0529311-D0A8-4A2F-B275-B776FDB2DE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
